--- a/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>背包</t>
   </si>
@@ -58,6 +58,9 @@
     <t>背包界面</t>
   </si>
   <si>
+    <t>功能入口</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -71,6 +74,238 @@
   </si>
   <si>
     <t>修改备注</t>
+  </si>
+  <si>
+    <t>单击，打开背包界面</t>
+  </si>
+  <si>
+    <t>4.2.A</t>
+  </si>
+  <si>
+    <t>选中可使用道具</t>
+  </si>
+  <si>
+    <t>4.2.B使用后道具数量为0</t>
+  </si>
+  <si>
+    <t>4.2.C</t>
+  </si>
+  <si>
+    <t>选中不可使用道具</t>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+  </si>
+  <si>
+    <t>单击，返回主界面</t>
+  </si>
+  <si>
+    <t>道具分页按钮</t>
+  </si>
+  <si>
+    <t>单击，下方列表切换到道具列表</t>
+  </si>
+  <si>
+    <t>合成分页按钮</t>
+  </si>
+  <si>
+    <t>单击，下方列表切换到合成列表</t>
+  </si>
+  <si>
+    <t>道具列表</t>
+  </si>
+  <si>
+    <t>背包格大于25时，可上下拖动</t>
+  </si>
+  <si>
+    <t>可使用道具</t>
+  </si>
+  <si>
+    <t>单击，选中该道具</t>
+  </si>
+  <si>
+    <t>道具信息切换为所选道具信息，且显示【使用】按钮</t>
+  </si>
+  <si>
+    <t>使用后数量为0</t>
+  </si>
+  <si>
+    <t>道具使用后数量为0，不立即移除，图标置灰，仍可选中（图4.2.B），隐藏【使用】按钮</t>
+  </si>
+  <si>
+    <t>不可使用道具</t>
+  </si>
+  <si>
+    <t>道具信息切换为所选道具信息（图4.2.C）</t>
+  </si>
+  <si>
+    <t>空闲道具格</t>
+  </si>
+  <si>
+    <t>仅显示栏位框及底图</t>
+  </si>
+  <si>
+    <t>道具图标及名称</t>
+  </si>
+  <si>
+    <t>道具效果及获取途径</t>
+  </si>
+  <si>
+    <t>道具当前数量</t>
+  </si>
+  <si>
+    <t>使用按钮</t>
+  </si>
+  <si>
+    <t>单击，使用该道具，道具数量大于等于5时，弹出道具使用弹窗（图4.2.D）</t>
+  </si>
+  <si>
+    <t>4.2.D</t>
+  </si>
+  <si>
+    <t>道具使用弹窗</t>
+  </si>
+  <si>
+    <t>道具图标及名称、数量</t>
+  </si>
+  <si>
+    <t>道具效果</t>
+  </si>
+  <si>
+    <t>减号按钮</t>
+  </si>
+  <si>
+    <t>单击，每次点击使用道具数量-1，直到最小值为1</t>
+  </si>
+  <si>
+    <t>数量输入框</t>
+  </si>
+  <si>
+    <t>单击，弹出系统输入框，可直接输入数量
+输入数值小于1时，设置为1
+输入数值大于拥有最大值时，设置为最大值</t>
+  </si>
+  <si>
+    <t>加号按钮</t>
+  </si>
+  <si>
+    <t>单击，每次点击使用道具数量+1，直到拥有的最大值</t>
+  </si>
+  <si>
+    <t>最大值按钮</t>
+  </si>
+  <si>
+    <t>单击，直接输入拥有最大值</t>
+  </si>
+  <si>
+    <t>单击，使用所填入的数量道具</t>
+  </si>
+  <si>
+    <t>点击任意位置关闭</t>
+  </si>
+  <si>
+    <t>单击，任意位置关闭弹窗</t>
+  </si>
+  <si>
+    <t>配置表</t>
+  </si>
+  <si>
+    <t>配置表名称</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name_cn</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_subtype </t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>achieve_mode</t>
+  </si>
+  <si>
+    <t>icon_id</t>
+  </si>
+  <si>
+    <t>spell_id</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>道具类型
+1=属性道具
+2=经验道具
+3=资质道具
+4=红颜道具
+5=子嗣道具
+6=爵位道具
+7=活力/体力道具
+8=货币
+9=碎片道具
+10=活动道具</t>
+  </si>
+  <si>
+    <t>道具子类型
+属性道具
+1=威严2=聪慧3=才华4=魅力
+经验道具
+1=主角经验2=门客经验3=门客技能经验
+资质道具
+1=威严2=聪慧3=才华4=魅力</t>
+  </si>
+  <si>
+    <t>品质
+1=普通
+2=精良
+3=优秀
+4=史诗
+5=传说</t>
+  </si>
+  <si>
+    <t>价值
+用于排序</t>
+  </si>
+  <si>
+    <t>获取途径
+用于展示</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>使用效果</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>美术需求</t>
   </si>
 </sst>
 </file>
@@ -78,10 +313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,21 +324,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,7 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,13 +358,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +372,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +412,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +442,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,15 +470,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,7 +480,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,37 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,43 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,67 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,12 +588,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -439,17 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,16 +719,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -513,6 +754,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,16 +812,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,121 +830,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -753,22 +1021,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>655955</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -781,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="12049125"/>
-          <a:ext cx="3361055" cy="5961380"/>
+          <a:off x="1466850" y="4552950"/>
+          <a:ext cx="3409315" cy="6059805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,6 +1061,3440 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="9677400"/>
+          <a:ext cx="1276350" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475615</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆形标注 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3618865" y="9315450"/>
+          <a:ext cx="371475" cy="343535"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57881"/>
+            <a:gd name="adj2" fmla="val 101386"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303655</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="11915775"/>
+          <a:ext cx="3437255" cy="6096635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>818515</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="椭圆形标注 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961765" y="12001500"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val 15185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>551815</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="椭圆形标注 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1551940" y="12296775"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21623"/>
+            <a:gd name="adj2" fmla="val 90185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>551815</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="椭圆形标注 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2237740" y="12306300"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21623"/>
+            <a:gd name="adj2" fmla="val 90185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="椭圆形标注 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1570990" y="13744575"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -104259"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542290</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="椭圆形标注 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228215" y="13744575"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -104259"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>894715</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1275715</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="椭圆形标注 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952115" y="13639800"/>
+          <a:ext cx="381000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -104259"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1456690</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="椭圆形标注 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514090" y="13630275"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -104259"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647065</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1018540</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="椭圆形标注 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4161790" y="12477750"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68119"/>
+            <a:gd name="adj2" fmla="val 101296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆形标注 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1818640" y="16002000"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16837"/>
+            <a:gd name="adj2" fmla="val 112407"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1161415</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="椭圆形标注 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218815" y="16048990"/>
+          <a:ext cx="485775" cy="448310"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16837"/>
+            <a:gd name="adj2" fmla="val 112407"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1075690</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆形标注 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4116070" y="15792450"/>
+          <a:ext cx="474345" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16837"/>
+            <a:gd name="adj2" fmla="val 112407"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="椭圆形标注 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695065" y="17287875"/>
+          <a:ext cx="495300" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93717"/>
+            <a:gd name="adj2" fmla="val 37361"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="11915775"/>
+          <a:ext cx="3399790" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423545</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="11877675"/>
+          <a:ext cx="3423920" cy="6072505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="21621750"/>
+          <a:ext cx="3190875" cy="5659120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="椭圆形标注 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="22879050"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11367"/>
+            <a:gd name="adj2" fmla="val 115185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="椭圆形标注 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="22936200"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34786"/>
+            <a:gd name="adj2" fmla="val 115185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="椭圆形标注 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="24765000"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60085"/>
+            <a:gd name="adj2" fmla="val -82037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="椭圆形标注 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="23983950"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11709"/>
+            <a:gd name="adj2" fmla="val 106851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="椭圆形标注 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="23993475"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11709"/>
+            <a:gd name="adj2" fmla="val 106851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="椭圆形标注 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="24050625"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52735"/>
+            <a:gd name="adj2" fmla="val 84629"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="椭圆形标注 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="24869775"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -109145"/>
+            <a:gd name="adj2" fmla="val 12407"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="椭圆形标注 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="25584150"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -109145"/>
+            <a:gd name="adj2" fmla="val 12407"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1056,13 +4758,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:G65"/>
+  <dimension ref="A2:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -1152,21 +4862,485 @@
         <v>13</v>
       </c>
     </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>4.1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="65" spans="3:7">
-      <c r="C65" t="s">
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>4.2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F107" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110" s="2">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111" s="2">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" ht="27" spans="3:7">
+      <c r="C112" s="2">
+        <v>5</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" ht="40.5" spans="3:7">
+      <c r="C113" s="2">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" s="2">
+        <v>7</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="C115" s="2">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" s="2">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" s="2">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="3:7">
+      <c r="C118" s="2">
+        <v>11</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" ht="40.5" spans="3:7">
+      <c r="C119" s="2">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7">
+      <c r="C156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7">
+      <c r="C157" s="2">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="3:7">
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" ht="27" spans="3:7">
+      <c r="C159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" ht="67.5" spans="3:7">
+      <c r="C160" s="2">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" ht="27" spans="3:7">
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="3:7">
+      <c r="C162" s="2">
+        <v>6</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="3:7">
+      <c r="C163" s="2">
+        <v>7</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="3:7">
+      <c r="C164" s="2">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4">
+      <c r="C168" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="3:12">
+      <c r="C170" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" ht="189" spans="3:12">
+      <c r="C171" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="3:12">
+      <c r="C172" t="s">
+        <v>85</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>背包</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>单击，每次点击使用道具数量-1，直到最小值为1</t>
+  </si>
+  <si>
+    <t>数量进度条</t>
+  </si>
+  <si>
+    <t>按住白点，左右拖动进度条，最少为1，最大值为当前拥有数量</t>
+  </si>
+  <si>
+    <t>加号按钮</t>
+  </si>
+  <si>
+    <t>单击，每次点击使用道具数量+1，直到拥有的最大值</t>
   </si>
   <si>
     <t>数量输入框</t>
@@ -186,18 +198,6 @@
 输入数值大于拥有最大值时，设置为最大值</t>
   </si>
   <si>
-    <t>加号按钮</t>
-  </si>
-  <si>
-    <t>单击，每次点击使用道具数量+1，直到拥有的最大值</t>
-  </si>
-  <si>
-    <t>最大值按钮</t>
-  </si>
-  <si>
-    <t>单击，直接输入拥有最大值</t>
-  </si>
-  <si>
     <t>单击，使用所填入的数量道具</t>
   </si>
   <si>
@@ -205,6 +205,177 @@
   </si>
   <si>
     <t>单击，任意位置关闭弹窗</t>
+  </si>
+  <si>
+    <t>合成界面</t>
+  </si>
+  <si>
+    <t>4.3.A合成界面</t>
+  </si>
+  <si>
+    <t>4.3.B合成弹窗（材料足够）</t>
+  </si>
+  <si>
+    <t>4.3.C合成弹窗（材料不足）</t>
+  </si>
+  <si>
+    <t>4.3.D道具信息弹窗</t>
+  </si>
+  <si>
+    <t>限时角标</t>
+  </si>
+  <si>
+    <t>表示该道具合成有开放时间限制，跟运营活动相关，通过运营活动配置表开关该配方，并设置开启时间。
+限时合成默认排序在最前方。</t>
+  </si>
+  <si>
+    <t>合成按钮</t>
+  </si>
+  <si>
+    <t>单击，打开合成弹窗
+材料足够时，打开4.3.B
+材料不足时，打开4.3.C</t>
+  </si>
+  <si>
+    <t>材料足够时，按钮边缘泛光</t>
+  </si>
+  <si>
+    <t>合成道具列表</t>
+  </si>
+  <si>
+    <t>上下拖动</t>
+  </si>
+  <si>
+    <t>根据配方配置表的排序字段进行排序</t>
+  </si>
+  <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>道具名称及效果</t>
+  </si>
+  <si>
+    <t>限时倒计时</t>
+  </si>
+  <si>
+    <t>仅在限时合成配方中显示</t>
+  </si>
+  <si>
+    <t>单击，关闭合成弹窗</t>
+  </si>
+  <si>
+    <t>合成材料图标、当前数量、所需数量</t>
+  </si>
+  <si>
+    <t>单击，弹出道具信息弹窗4.3.D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">材料足够时，当前数量/所需数量为绿字显示
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料不足时，为红字显示（标注16）</t>
+    </r>
+  </si>
+  <si>
+    <t>合成数量</t>
+  </si>
+  <si>
+    <t>左边为当前合成数量，右边为最多可合成数量
+材料足够时，默认合成数量为1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单击，每次点击使用道具数量-1，直到最小值为1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料不足时，按钮禁用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单击，每次点击使用道具数量+1，直到拥有的最大值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料不足时，按钮禁用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">按住白点，左右拖动进度条，最少为1，最大值为当前拥有数量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料不足时，按钮禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（标注17）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">材料足够时，默认合成数量为1
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单击，弹出系统输入框，可直接输入数量
+输入数值小于1时，设置为1
+输入数值大于拥有最大值时，设置为最大值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料不足时，输入框禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（标注18）</t>
+    </r>
+  </si>
+  <si>
+    <t>单击，合成相应数量的道具，合成弹窗不关闭</t>
+  </si>
+  <si>
+    <t>道具信息弹窗</t>
+  </si>
+  <si>
+    <t>单击任意位置，关闭道具信息弹窗</t>
   </si>
   <si>
     <t>配置表</t>
@@ -305,7 +476,20 @@
     <t>string</t>
   </si>
   <si>
-    <t>美术需求</t>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>所需材料数组
+材料1_id,数量;材料2_id,数量</t>
+  </si>
+  <si>
+    <t>成品ID</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -313,12 +497,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,25 +511,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,20 +548,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -386,55 +563,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -442,7 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,9 +594,71 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -486,19 +677,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +725,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,73 +833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,67 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,15 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -719,17 +901,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,22 +916,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,13 +945,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,137 +1003,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +1145,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1023,6 +1232,48 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="30889575"/>
+          <a:ext cx="3302635" cy="5866765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -1030,7 +1281,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:colOff>1237615</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
@@ -1042,7 +1293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1066,15 +1317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1083,8 +1334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409825" y="9677400"/>
-          <a:ext cx="1276350" cy="838200"/>
+          <a:off x="2514600" y="9867900"/>
+          <a:ext cx="581025" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1131,18 +1382,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104140</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>780415</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>475615</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1151890</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1151,7 +1402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3618865" y="9315450"/>
+          <a:off x="2961640" y="9496425"/>
           <a:ext cx="371475" cy="343535"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1198,7 +1449,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1303655</xdr:colOff>
+      <xdr:colOff>1179830</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
@@ -1210,7 +1461,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1251,7 +1502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3961765" y="12001500"/>
+          <a:off x="4085590" y="12001500"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1565,7 +1816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2237740" y="12306300"/>
+          <a:off x="2361565" y="12306300"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1879,7 +2130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228215" y="13744575"/>
+          <a:off x="2352040" y="13744575"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2036,7 +2287,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952115" y="13639800"/>
+          <a:off x="3075940" y="13639800"/>
           <a:ext cx="381000" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2193,7 +2444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514090" y="13630275"/>
+          <a:off x="3637915" y="13630275"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2350,7 +2601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4161790" y="12477750"/>
+          <a:off x="4285615" y="12477750"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2508,7 +2759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1818640" y="16002000"/>
-          <a:ext cx="371475" cy="342900"/>
+          <a:ext cx="495300" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -2664,7 +2915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3218815" y="16048990"/>
+          <a:off x="3342640" y="16048990"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2821,7 +3072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4116070" y="15792450"/>
+          <a:off x="4239895" y="15792450"/>
           <a:ext cx="474345" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2978,7 +3229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695065" y="17287875"/>
+          <a:off x="3818890" y="17287875"/>
           <a:ext cx="495300" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3124,7 +3375,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>675640</xdr:colOff>
+      <xdr:colOff>218440</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3136,14 +3387,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="11915775"/>
+          <a:off x="5895975" y="11915775"/>
           <a:ext cx="3399790" cy="6029325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3178,15 +3429,57 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="11877675"/>
+          <a:off x="10934700" y="11877675"/>
           <a:ext cx="3423920" cy="6072505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="30899100"/>
+          <a:ext cx="3276600" cy="5819775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3201,73 +3494,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1409700" y="21621750"/>
-          <a:ext cx="3190875" cy="5659120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="椭圆形标注 34"/>
+        <xdr:cNvPr id="7" name="椭圆形标注 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1619250" y="22879050"/>
+          <a:off x="1095375" y="31956375"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 11367"/>
-            <a:gd name="adj2" fmla="val 115185"/>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val 15185"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3400,31 +3651,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="椭圆形标注 35"/>
+        <xdr:cNvPr id="8" name="椭圆形标注 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3762375" y="22936200"/>
+          <a:off x="971550" y="32461200"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -34786"/>
-            <a:gd name="adj2" fmla="val 115185"/>
+            <a:gd name="adj1" fmla="val 137008"/>
+            <a:gd name="adj2" fmla="val 1296"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3557,31 +3808,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="椭圆形标注 36"/>
+        <xdr:cNvPr id="9" name="椭圆形标注 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571625" y="24765000"/>
+          <a:off x="1085850" y="32918400"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 60085"/>
-            <a:gd name="adj2" fmla="val -82037"/>
+            <a:gd name="adj1" fmla="val 137008"/>
+            <a:gd name="adj2" fmla="val 1296"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3714,25 +3965,1480 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="椭圆形标注 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="32527875"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 93418"/>
+            <a:gd name="adj2" fmla="val 101296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="椭圆形标注 37"/>
+        <xdr:cNvPr id="14" name="椭圆形标注 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="23983950"/>
+          <a:off x="7019925" y="32385000"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11367"/>
+            <a:gd name="adj2" fmla="val 92962"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="椭圆形标注 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="32661225"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -104017"/>
+            <a:gd name="adj2" fmla="val 31851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="椭圆形标注 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="32089725"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -101452"/>
+            <a:gd name="adj2" fmla="val 54074"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="椭圆形标注 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="33851215"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val -1481"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2180590</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>437515</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="椭圆形标注 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819140" y="34127440"/>
+          <a:ext cx="485775" cy="448310"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88290"/>
+            <a:gd name="adj2" fmla="val 29074"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2190115</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2694940</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="椭圆形标注 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8057515" y="34023935"/>
+          <a:ext cx="504825" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39914"/>
+            <a:gd name="adj2" fmla="val 81851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1075690</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="21631275"/>
+          <a:ext cx="3295015" cy="5632450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="椭圆形标注 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="25612725"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -109145"/>
+            <a:gd name="adj2" fmla="val 12407"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704215</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="椭圆形标注 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971290" y="22973665"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34786"/>
+            <a:gd name="adj2" fmla="val 115185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>970915</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="椭圆形标注 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2780665" y="24021415"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3871,25 +5577,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>380365</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="椭圆形标注 38"/>
+        <xdr:cNvPr id="50" name="椭圆形标注 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="23993475"/>
+          <a:off x="3647440" y="24030940"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4029,24 +5735,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>599440</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
+      <xdr:colOff>970915</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="椭圆形标注 39"/>
+        <xdr:cNvPr id="51" name="椭圆形标注 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4029075" y="24050625"/>
+          <a:off x="4237990" y="24088090"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4186,24 +5892,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>237490</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>608965</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="椭圆形标注 40"/>
+        <xdr:cNvPr id="52" name="椭圆形标注 51"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667125" y="24869775"/>
+          <a:off x="3876040" y="24907240"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4342,31 +6048,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>303530</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>675005</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="椭圆形标注 41"/>
+        <xdr:cNvPr id="53" name="椭圆形标注 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="25584150"/>
+          <a:off x="1675130" y="22917150"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -109145"/>
-            <a:gd name="adj2" fmla="val 12407"/>
+            <a:gd name="adj1" fmla="val 11367"/>
+            <a:gd name="adj2" fmla="val 115185"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -4489,7 +6195,1661 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>8</a:t>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="椭圆形标注 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="24839930"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1111"/>
+            <a:gd name="adj2" fmla="val -95925"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1599565</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2113915</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="椭圆形标注 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7466965" y="34053145"/>
+          <a:ext cx="514350" cy="474980"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39914"/>
+            <a:gd name="adj2" fmla="val 81851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2780665</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="椭圆形标注 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648065" y="34062035"/>
+          <a:ext cx="504825" cy="466090"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39914"/>
+            <a:gd name="adj2" fmla="val 81851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2142490</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2628265</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="椭圆形标注 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8009890" y="35052000"/>
+          <a:ext cx="485775" cy="448310"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91196"/>
+            <a:gd name="adj2" fmla="val -29259"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248265" y="30889575"/>
+          <a:ext cx="3286125" cy="5836285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561340</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351790</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="椭圆形标注 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772140" y="33850580"/>
+          <a:ext cx="476250" cy="439420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98547"/>
+            <a:gd name="adj2" fmla="val 31851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338455</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="椭圆形标注 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10705465" y="34918650"/>
+          <a:ext cx="529590" cy="489585"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028065</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="椭圆形标注 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12439015" y="34937700"/>
+          <a:ext cx="533400" cy="492125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="椭圆形标注 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="33480375"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val 26296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2113915</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="椭圆形标注 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5752465" y="34670365"/>
+          <a:ext cx="485775" cy="448310"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 96143"/>
+            <a:gd name="adj2" fmla="val -36827"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580390</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668500" y="30889575"/>
+          <a:ext cx="3275965" cy="5818505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="椭圆形标注 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14810740" y="34747200"/>
+          <a:ext cx="533400" cy="492125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76785"/>
+            <a:gd name="adj2" fmla="val -25741"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>19</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4758,17 +8118,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:L174"/>
+  <dimension ref="A2:N239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="17.125" customWidth="1"/>
@@ -4918,8 +8279,6 @@
       <c r="F69" t="s">
         <v>23</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
       <c r="I69" t="s">
         <v>24</v>
       </c>
@@ -5160,7 +8519,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" ht="67.5" spans="3:7">
+    <row r="160" ht="27" spans="3:7">
       <c r="C160" s="2">
         <v>4</v>
       </c>
@@ -5186,14 +8545,14 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="3:7">
+    <row r="162" ht="67.5" spans="3:7">
       <c r="C162" s="2">
         <v>6</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F162" s="2"/>
@@ -5227,120 +8586,429 @@
     </row>
     <row r="166" spans="2:3">
       <c r="B166">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="C166" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="3:4">
-      <c r="C168" t="s">
+    <row r="168" spans="4:14">
+      <c r="D168" t="s">
         <v>64</v>
       </c>
-      <c r="D168" t="s">
+      <c r="F168" t="s">
         <v>65</v>
       </c>
+      <c r="I168" t="s">
+        <v>66</v>
+      </c>
+      <c r="N168" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="170" spans="3:12">
-      <c r="C170" t="s">
-        <v>66</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="1" t="s">
+    <row r="206" spans="3:7">
+      <c r="C206" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" ht="54" spans="3:7">
+      <c r="C207" s="4">
+        <v>1</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="E207" s="4"/>
+      <c r="F207" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="3:7">
+      <c r="C208" s="4">
+        <v>2</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" ht="40.5" spans="3:7">
+      <c r="C209" s="4">
+        <v>3</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="E209" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="F209" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="3:7">
+      <c r="C210" s="4">
+        <v>4</v>
+      </c>
+      <c r="D210" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K170" s="1" t="s">
+      <c r="E210" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L170" s="1" t="s">
+      <c r="F210" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="G210" s="4"/>
     </row>
-    <row r="171" ht="189" spans="3:12">
-      <c r="C171" t="s">
+    <row r="211" spans="3:7">
+      <c r="C211" s="4">
+        <v>5</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="3:7">
+      <c r="C212" s="4">
+        <v>6</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="3:7">
+      <c r="C213" s="4">
+        <v>7</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="3:7">
+      <c r="C214" s="4">
+        <v>8</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" ht="27" spans="3:7">
+      <c r="C215" s="4">
+        <v>9</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" ht="27" spans="3:7">
+      <c r="C216" s="4">
+        <v>10</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" ht="40.5" spans="3:7">
+      <c r="C217" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" ht="40.5" spans="3:7">
+      <c r="C218" s="4">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" ht="40.5" spans="3:7">
+      <c r="C219" s="4">
+        <v>13</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" ht="94.5" spans="3:7">
+      <c r="C220" s="4">
+        <v>14</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" ht="27" spans="3:7">
+      <c r="C221" s="4">
+        <v>15</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="3:7">
+      <c r="C222" s="4">
+        <v>19</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4">
+      <c r="C228" t="s">
+        <v>95</v>
+      </c>
+      <c r="D228" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="230" spans="3:12">
+      <c r="C230" t="s">
+        <v>97</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="231" ht="189" spans="3:12">
+      <c r="C231" t="s">
+        <v>107</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>84</v>
+      <c r="F231" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="172" spans="3:12">
-      <c r="C172" t="s">
-        <v>85</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K172" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>86</v>
+    <row r="232" spans="3:12">
+      <c r="C232" t="s">
+        <v>116</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="174" spans="2:3">
-      <c r="B174">
-        <v>6</v>
-      </c>
-      <c r="C174" t="s">
-        <v>88</v>
+    <row r="235" spans="3:4">
+      <c r="C235" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8">
+      <c r="C237" t="s">
+        <v>97</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="238" ht="27" spans="3:8">
+      <c r="C238" t="s">
+        <v>107</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G238" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8">
+      <c r="C239" t="s">
+        <v>116</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
@@ -271,6 +271,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">材料足够时，当前数量/所需数量为绿字显示
 </t>
     </r>
@@ -278,6 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>材料不足时，为红字显示（标注16）</t>
@@ -292,6 +298,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">单击，每次点击使用道具数量-1，直到最小值为1
 </t>
     </r>
@@ -299,6 +310,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>材料不足时，按钮禁用</t>
@@ -306,6 +318,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">单击，每次点击使用道具数量+1，直到拥有的最大值
 </t>
     </r>
@@ -313,6 +330,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>材料不足时，按钮禁用</t>
@@ -320,6 +338,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">按住白点，左右拖动进度条，最少为1，最大值为当前拥有数量
 </t>
     </r>
@@ -327,6 +350,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>材料不足时，按钮禁用</t>
@@ -335,6 +359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（标注17）</t>
@@ -346,6 +371,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">单击，弹出系统输入框，可直接输入数量
 输入数值小于1时，设置为1
 输入数值大于拥有最大值时，设置为最大值
@@ -355,6 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>材料不足时，输入框禁用</t>
@@ -363,6 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（标注18）</t>
@@ -430,7 +462,7 @@
 4=红颜道具
 5=子嗣道具
 6=爵位道具
-7=活力/体力道具
+7=次数道具
 8=货币
 9=碎片道具
 10=活动道具</t>
@@ -438,11 +470,11 @@
   <si>
     <t>道具子类型
 属性道具
-1=威严2=聪慧3=才华4=魅力
+1=威严2=聪慧3=才华4=魅力5=随机属性
 经验道具
-1=主角经验2=门客经验3=门客技能经验
+1=主角经验2=门客经验3=门客技能经验4=红颜经验
 资质道具
-1=威严2=聪慧3=才华4=魅力</t>
+1=威严2=聪慧3=才华4=魅力5=随机资质</t>
   </si>
   <si>
     <t>品质
@@ -497,12 +529,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,16 +544,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,14 +575,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,25 +605,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,7 +621,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,30 +658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -633,23 +667,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +691,12 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -677,6 +714,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -689,13 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,13 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,133 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,17 +923,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,15 +947,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -936,26 +967,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,11 +1006,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +1028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,16 +1040,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,119 +1058,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,23 +1183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1258,7 +1280,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="30889575"/>
+          <a:off x="5895975" y="30718125"/>
           <a:ext cx="3302635" cy="5866765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3478,7 +3500,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="30899100"/>
+          <a:off x="1409700" y="30727650"/>
           <a:ext cx="3276600" cy="5819775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3512,7 +3534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="31956375"/>
+          <a:off x="1095375" y="31784925"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3669,7 +3691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="32461200"/>
+          <a:off x="971550" y="32289750"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3826,7 +3848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="32918400"/>
+          <a:off x="1085850" y="32746950"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3983,7 +4005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="32527875"/>
+          <a:off x="5895975" y="32356425"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4140,7 +4162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="32385000"/>
+          <a:off x="7019925" y="32213550"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4297,7 +4319,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="32661225"/>
+          <a:off x="8953500" y="32489775"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4454,7 +4476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9105900" y="32089725"/>
+          <a:off x="9105900" y="31918275"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4611,7 +4633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429375" y="33851215"/>
+          <a:off x="6429375" y="33679765"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4768,7 +4790,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819140" y="34127440"/>
+          <a:off x="5819140" y="33955990"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4925,7 +4947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8057515" y="34023935"/>
+          <a:off x="8057515" y="33852485"/>
           <a:ext cx="504825" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5090,7 +5112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="21631275"/>
+          <a:off x="1419225" y="21459825"/>
           <a:ext cx="3295015" cy="5632450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5124,7 +5146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533775" y="25612725"/>
+          <a:off x="3533775" y="25441275"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5281,7 +5303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971290" y="22973665"/>
+          <a:off x="3971290" y="22802215"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5438,7 +5460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2780665" y="24021415"/>
+          <a:off x="2780665" y="23849965"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5595,7 +5617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3647440" y="24030940"/>
+          <a:off x="3647440" y="23859490"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5752,7 +5774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4237990" y="24088090"/>
+          <a:off x="4237990" y="23916640"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5909,7 +5931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3876040" y="24907240"/>
+          <a:off x="3876040" y="24735790"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6066,7 +6088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1675130" y="22917150"/>
+          <a:off x="1675130" y="22745700"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6223,7 +6245,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1628775" y="24839930"/>
+          <a:off x="1628775" y="24668480"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6380,7 +6402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7466965" y="34053145"/>
+          <a:off x="7466965" y="33881695"/>
           <a:ext cx="514350" cy="474980"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6537,7 +6559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648065" y="34062035"/>
+          <a:off x="8648065" y="33890585"/>
           <a:ext cx="504825" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6694,7 +6716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8009890" y="35052000"/>
+          <a:off x="8009890" y="34880550"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6859,7 +6881,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10248265" y="30889575"/>
+          <a:off x="10248265" y="30718125"/>
           <a:ext cx="3286125" cy="5836285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6893,7 +6915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772140" y="33850580"/>
+          <a:off x="10772140" y="33679130"/>
           <a:ext cx="476250" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -7050,7 +7072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10705465" y="34918650"/>
+          <a:off x="10705465" y="34747200"/>
           <a:ext cx="529590" cy="489585"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -7207,7 +7229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12439015" y="34937700"/>
+          <a:off x="12439015" y="34766250"/>
           <a:ext cx="533400" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -7364,7 +7386,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="33480375"/>
+          <a:off x="971550" y="33308925"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -7521,7 +7543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5752465" y="34670365"/>
+          <a:off x="5752465" y="34498915"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -7686,7 +7708,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14668500" y="30889575"/>
+          <a:off x="14668500" y="30718125"/>
           <a:ext cx="3275965" cy="5818505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7720,7 +7742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14810740" y="34747200"/>
+          <a:off x="14810740" y="34575750"/>
           <a:ext cx="533400" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -8120,8 +8142,8 @@
   <sheetPr/>
   <dimension ref="A2:N239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8370,7 +8392,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" ht="40.5" spans="3:7">
+    <row r="113" ht="27" spans="3:7">
       <c r="C113" s="2">
         <v>6</v>
       </c>
@@ -8624,214 +8646,214 @@
       </c>
     </row>
     <row r="207" ht="54" spans="3:7">
-      <c r="C207" s="4">
+      <c r="C207" s="2">
         <v>1</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E207" s="4"/>
-      <c r="F207" s="5" t="s">
+      <c r="E207" s="2"/>
+      <c r="F207" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G207" s="4"/>
+      <c r="G207" s="2"/>
     </row>
     <row r="208" spans="3:7">
-      <c r="C208" s="4">
+      <c r="C208" s="2">
         <v>2</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
     </row>
     <row r="209" ht="40.5" spans="3:7">
-      <c r="C209" s="4">
+      <c r="C209" s="2">
         <v>3</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G209" s="4"/>
+      <c r="G209" s="2"/>
     </row>
     <row r="210" spans="3:7">
-      <c r="C210" s="4">
+      <c r="C210" s="2">
         <v>4</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D210" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="E210" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F210" s="4" t="s">
+      <c r="F210" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G210" s="4"/>
+      <c r="G210" s="2"/>
     </row>
     <row r="211" spans="3:7">
-      <c r="C211" s="4">
+      <c r="C211" s="2">
         <v>5</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D211" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
     </row>
     <row r="212" spans="3:7">
-      <c r="C212" s="4">
+      <c r="C212" s="2">
         <v>6</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D212" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
     </row>
     <row r="213" spans="3:7">
-      <c r="C213" s="4">
+      <c r="C213" s="2">
         <v>7</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D213" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4" t="s">
+      <c r="E213" s="2"/>
+      <c r="F213" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G213" s="4"/>
+      <c r="G213" s="2"/>
     </row>
     <row r="214" spans="3:7">
-      <c r="C214" s="4">
+      <c r="C214" s="2">
         <v>8</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="D214" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="E214" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" ht="27" spans="3:7">
-      <c r="C215" s="4">
+      <c r="C215" s="2">
         <v>9</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="E215" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G215" s="4"/>
+      <c r="G215" s="2"/>
     </row>
     <row r="216" ht="27" spans="3:7">
-      <c r="C216" s="4">
+      <c r="C216" s="2">
         <v>10</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D216" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E216" s="4"/>
-      <c r="F216" s="5" t="s">
+      <c r="E216" s="2"/>
+      <c r="F216" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G216" s="4"/>
+      <c r="G216" s="2"/>
     </row>
     <row r="217" ht="40.5" spans="3:7">
-      <c r="C217" s="4">
+      <c r="C217" s="2">
         <v>11</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D217" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E217" s="7" t="s">
+      <c r="E217" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
     </row>
     <row r="218" ht="40.5" spans="3:7">
-      <c r="C218" s="4">
+      <c r="C218" s="2">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="E218" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
     </row>
     <row r="219" ht="40.5" spans="3:7">
-      <c r="C219" s="4">
+      <c r="C219" s="2">
         <v>13</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E219" s="7" t="s">
+      <c r="E219" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F219" s="5" t="s">
+      <c r="F219" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G219" s="4"/>
+      <c r="G219" s="2"/>
     </row>
     <row r="220" ht="94.5" spans="3:7">
-      <c r="C220" s="4">
+      <c r="C220" s="2">
         <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E220" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
     </row>
     <row r="221" ht="27" spans="3:7">
-      <c r="C221" s="4">
+      <c r="C221" s="2">
         <v>15</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="D221" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E221" s="5" t="s">
+      <c r="E221" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
     </row>
     <row r="222" spans="3:7">
-      <c r="C222" s="4">
+      <c r="C222" s="2">
         <v>19</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D222" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="E222" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226">
@@ -8881,7 +8903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="231" ht="189" spans="3:12">
+    <row r="231" ht="229.5" spans="3:12">
       <c r="C231" t="s">
         <v>107</v>
       </c>
@@ -8891,19 +8913,19 @@
       <c r="E231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F231" s="8" t="s">
+      <c r="F231" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G231" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H231" s="8" t="s">
+      <c r="H231" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I231" s="8" t="s">
+      <c r="I231" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J231" s="8" t="s">
+      <c r="J231" s="5" t="s">
         <v>113</v>
       </c>
       <c r="K231" s="1" t="s">
@@ -8926,7 +8948,9 @@
       <c r="F232" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G232" s="1"/>
+      <c r="G232" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H232" s="1" t="s">
         <v>117</v>
       </c>
@@ -8955,16 +8979,16 @@
       <c r="C237" t="s">
         <v>97</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D237" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E237" s="9" t="s">
+      <c r="E237" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F237" s="9" t="s">
+      <c r="F237" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G237" s="9" t="s">
+      <c r="G237" s="1" t="s">
         <v>120</v>
       </c>
       <c r="H237" s="1" t="s">
@@ -8975,19 +8999,19 @@
       <c r="C238" t="s">
         <v>107</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E238" s="9" t="s">
+      <c r="E238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F238" s="10" t="s">
+      <c r="F238" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G238" s="10" t="s">
+      <c r="G238" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8995,16 +9019,16 @@
       <c r="C239" t="s">
         <v>116</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="D239" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E239" s="9" t="s">
+      <c r="E239" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F239" s="9" t="s">
+      <c r="F239" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G239" s="9" t="s">
+      <c r="G239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H239" s="1" t="s">

--- a/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
@@ -4,36 +4,80 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="目录及修订说明" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+  <si>
+    <t>修订记录</t>
+  </si>
+  <si>
+    <t>文档目录</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>设计目的</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>创建文档</t>
+  </si>
+  <si>
+    <t>蔡文吉</t>
+  </si>
+  <si>
+    <t>设计思路</t>
+  </si>
+  <si>
+    <t>背包界面调整，原界面弃用（标红），点击跳转新界面</t>
+  </si>
+  <si>
+    <t>功能规则</t>
+  </si>
+  <si>
+    <t>背包界面</t>
+  </si>
+  <si>
+    <t>功能入口</t>
+  </si>
+  <si>
+    <t>合成界面</t>
+  </si>
+  <si>
+    <t>配置表</t>
+  </si>
   <si>
     <t>背包</t>
   </si>
   <si>
-    <t>设计目的</t>
-  </si>
-  <si>
     <t>展示玩家获取的道具，便于玩家快速使用道具</t>
   </si>
   <si>
-    <t>设计思路</t>
-  </si>
-  <si>
     <t>通过排序规则，自动整理背包，便于玩家快速使用道具</t>
   </si>
   <si>
-    <t>功能规则</t>
-  </si>
-  <si>
     <t>道具排序</t>
   </si>
   <si>
@@ -53,12 +97,6 @@
   </si>
   <si>
     <t>空闲格子无法被选中。</t>
-  </si>
-  <si>
-    <t>背包界面</t>
-  </si>
-  <si>
-    <t>功能入口</t>
   </si>
   <si>
     <t>序号</t>
@@ -207,7 +245,41 @@
     <t>单击，任意位置关闭弹窗</t>
   </si>
   <si>
-    <t>合成界面</t>
+    <t>4.2.A背包界面</t>
+  </si>
+  <si>
+    <t>4.2.B可使用道具弹窗</t>
+  </si>
+  <si>
+    <t>4.2.C数量0道具弹窗</t>
+  </si>
+  <si>
+    <t>4.2.D不可使用道具弹窗</t>
+  </si>
+  <si>
+    <t>背包格大于40时，可上下拖动</t>
+  </si>
+  <si>
+    <t>默认每行5个，共8行，数量超过40则最下方增加一行</t>
+  </si>
+  <si>
+    <t>单击，选中该道具，弹出道具使用弹窗（图4.2.B）</t>
+  </si>
+  <si>
+    <t>道具信息切换为所选道具信息</t>
+  </si>
+  <si>
+    <t>单击，选中该道具，弹出道具不可使用弹窗（图4.2.C）</t>
+  </si>
+  <si>
+    <t>道具使用后数量为0，不立即移除，图标置灰，仍可选中,弹出（图4.2.C）</t>
+  </si>
+  <si>
+    <t>单击，选中该道具，弹出道具不可使用弹窗（图4.2.D）</t>
+  </si>
+  <si>
+    <t>道具使用后数量为0时，显示为红字（图4.2.C标注17）
+道具数量&gt;0时，显示为绿字</t>
   </si>
   <si>
     <t>4.3.A合成界面</t>
@@ -274,6 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">材料足够时，当前数量/所需数量为绿字显示
@@ -301,6 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单击，每次点击使用道具数量-1，直到最小值为1
@@ -321,6 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单击，每次点击使用道具数量+1，直到拥有的最大值
@@ -341,6 +416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">按住白点，左右拖动进度条，最少为1，最大值为当前拥有数量
@@ -374,6 +450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单击，弹出系统输入框，可直接输入数量
@@ -410,9 +487,6 @@
     <t>单击任意位置，关闭道具信息弹窗</t>
   </si>
   <si>
-    <t>配置表</t>
-  </si>
-  <si>
     <t>配置表名称</t>
   </si>
   <si>
@@ -530,9 +604,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -543,116 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,10 +640,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,9 +716,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -698,8 +766,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,7 +782,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,13 +812,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,19 +860,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,13 +902,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,49 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,61 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,29 +1005,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,17 +1044,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,6 +1067,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,21 +1100,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1028,10 +1108,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,145 +1120,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1186,8 +1287,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1256,14 +1369,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>121285</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1280,7 +1393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="30718125"/>
+          <a:off x="5895975" y="42005250"/>
           <a:ext cx="3302635" cy="5866765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1507,15 +1620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>447040</xdr:colOff>
+      <xdr:colOff>275590</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>818515</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1524,7 +1637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4085590" y="12001500"/>
+          <a:off x="3914140" y="12020550"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3476,14 +3589,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3500,7 +3613,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="30727650"/>
+          <a:off x="1409700" y="42005250"/>
           <a:ext cx="3276600" cy="5819775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3518,13 +3631,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3534,7 +3647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="31784925"/>
+          <a:off x="1095375" y="43100625"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3675,13 +3788,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3691,7 +3804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="32289750"/>
+          <a:off x="971550" y="43605450"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3828,17 +3941,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3848,7 +3961,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="32746950"/>
+          <a:off x="1085850" y="44062650"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3985,18 +4098,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4005,7 +4118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="32356425"/>
+          <a:off x="5895975" y="43548300"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4142,18 +4255,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4162,7 +4275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="32213550"/>
+          <a:off x="7019925" y="43376850"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4299,18 +4412,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3086100</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4319,7 +4432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="32489775"/>
+          <a:off x="8953500" y="43719750"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4456,18 +4569,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4476,7 +4589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9105900" y="31918275"/>
+          <a:off x="9105900" y="43205400"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4613,18 +4726,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4633,7 +4746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429375" y="33679765"/>
+          <a:off x="6429375" y="44919900"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4770,18 +4883,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2180590</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>437515</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4790,7 +4903,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819140" y="33955990"/>
+          <a:off x="5819140" y="45262800"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4927,18 +5040,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2190115</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2694940</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4947,7 +5060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8057515" y="33852485"/>
+          <a:off x="8057515" y="45091350"/>
           <a:ext cx="504825" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6382,18 +6495,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1599565</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2113915</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6402,7 +6515,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7466965" y="33881695"/>
+          <a:off x="7466965" y="45091350"/>
           <a:ext cx="514350" cy="474980"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6539,18 +6652,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2780665</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>75565</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6559,7 +6672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648065" y="33890585"/>
+          <a:off x="8648065" y="45091350"/>
           <a:ext cx="504825" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6696,18 +6809,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2142490</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2628265</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6716,7 +6829,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8009890" y="34880550"/>
+          <a:off x="8009890" y="46120050"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6857,14 +6970,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>37465</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285115</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6881,8 +6994,2646 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10248265" y="30718125"/>
+          <a:off x="10248265" y="42005250"/>
           <a:ext cx="3286125" cy="5836285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561340</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351790</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="椭圆形标注 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772140" y="44919900"/>
+          <a:ext cx="476250" cy="439420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98547"/>
+            <a:gd name="adj2" fmla="val 31851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338455</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="椭圆形标注 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10705465" y="45948600"/>
+          <a:ext cx="529590" cy="489585"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028065</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="椭圆形标注 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12439015" y="45948600"/>
+          <a:ext cx="533400" cy="492125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26752"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="椭圆形标注 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="44577000"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val 26296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2113915</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="椭圆形标注 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5752465" y="45777150"/>
+          <a:ext cx="485775" cy="448310"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 96143"/>
+            <a:gd name="adj2" fmla="val -36827"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580390</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668500" y="42005250"/>
+          <a:ext cx="3275965" cy="5818505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="椭圆形标注 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14810740" y="45777150"/>
+          <a:ext cx="533400" cy="492125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76785"/>
+            <a:gd name="adj2" fmla="val -25741"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1094740" y="43033950"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val 15185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="椭圆形标注 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="43548300"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 137008"/>
+            <a:gd name="adj2" fmla="val 1296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="30718125"/>
+          <a:ext cx="2886075" cy="5118100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="椭圆形标注 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="30756225"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90854"/>
+            <a:gd name="adj2" fmla="val 15185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="椭圆形标注 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="30937200"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4017"/>
+            <a:gd name="adj2" fmla="val 81851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="椭圆形标注 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="30937200"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4017"/>
+            <a:gd name="adj2" fmla="val 81851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="椭圆形标注 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="32184975"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19059"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="椭圆形标注 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="32194500"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19059"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="椭圆形标注 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="32194500"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19059"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="椭圆形标注 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="31213425"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 126752"/>
+            <a:gd name="adj2" fmla="val 73518"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="椭圆形标注 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="32175450"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19059"/>
+            <a:gd name="adj2" fmla="val -107037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2933065</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="30699075"/>
+          <a:ext cx="2904490" cy="5151120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6898,30 +9649,1056 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>561340</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>351790</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1189990</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="30689550"/>
+          <a:ext cx="2894965" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973175" y="30699075"/>
+          <a:ext cx="2894965" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>694055</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="椭圆形标注 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961130" y="22801580"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34786"/>
+            <a:gd name="adj2" fmla="val 115185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>960755</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="椭圆形标注 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2770505" y="23849330"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11709"/>
+            <a:gd name="adj2" fmla="val 106851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1456055</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370205</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="椭圆形标注 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3637280" y="23858855"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11709"/>
+            <a:gd name="adj2" fmla="val 106851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>960755</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="椭圆形标注 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4227830" y="23916005"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52735"/>
+            <a:gd name="adj2" fmla="val 84629"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="椭圆形标注 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1664970" y="22745700"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11367"/>
+            <a:gd name="adj2" fmla="val 115185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="椭圆形标注 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="24667845"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1111"/>
+            <a:gd name="adj2" fmla="val -95925"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2105025</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2600325</xdr:colOff>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="椭圆形标注 57"/>
+        <xdr:cNvPr id="72" name="椭圆形标注 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772140" y="33679130"/>
-          <a:ext cx="476250" cy="439420"/>
+          <a:off x="7972425" y="34461450"/>
+          <a:ext cx="495300" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 98547"/>
-            <a:gd name="adj2" fmla="val 31851"/>
+            <a:gd name="adj1" fmla="val -109145"/>
+            <a:gd name="adj2" fmla="val 12407"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7054,31 +10831,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>494665</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1999615</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338455</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2494915</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="椭圆形标注 58"/>
+        <xdr:cNvPr id="73" name="椭圆形标注 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10705465" y="34747200"/>
-          <a:ext cx="529590" cy="489585"/>
+          <a:off x="7867015" y="33660715"/>
+          <a:ext cx="495300" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 26752"/>
-            <a:gd name="adj2" fmla="val -107037"/>
+            <a:gd name="adj1" fmla="val -109145"/>
+            <a:gd name="adj2" fmla="val 12407"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7201,7 +10978,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>17</a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -7211,31 +10988,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>494665</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2437130</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1028065</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2903855</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="椭圆形标注 59"/>
+        <xdr:cNvPr id="74" name="椭圆形标注 73"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12439015" y="34766250"/>
-          <a:ext cx="533400" cy="492125"/>
+          <a:off x="8304530" y="31802705"/>
+          <a:ext cx="466725" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 26752"/>
-            <a:gd name="adj2" fmla="val -107037"/>
+            <a:gd name="adj1" fmla="val -34786"/>
+            <a:gd name="adj2" fmla="val 115185"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7358,7 +11135,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>18</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -7368,31 +11145,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951230</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1446530</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="椭圆形标注 62"/>
+        <xdr:cNvPr id="75" name="椭圆形标注 74"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="33308925"/>
-          <a:ext cx="371475" cy="342900"/>
+          <a:off x="6818630" y="32821880"/>
+          <a:ext cx="495300" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 90854"/>
-            <a:gd name="adj2" fmla="val 26296"/>
+            <a:gd name="adj1" fmla="val -11709"/>
+            <a:gd name="adj2" fmla="val 106851"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7515,7 +11292,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>4</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -7525,31 +11302,502 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2113915</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>37465</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1675130</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>370840</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>2189480</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="椭圆形标注 64"/>
+        <xdr:cNvPr id="76" name="椭圆形标注 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5752465" y="34498915"/>
-          <a:ext cx="485775" cy="448310"/>
+          <a:off x="7542530" y="32812355"/>
+          <a:ext cx="514350" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 96143"/>
-            <a:gd name="adj2" fmla="val -36827"/>
+            <a:gd name="adj1" fmla="val -11709"/>
+            <a:gd name="adj2" fmla="val 106851"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2275205</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2760980</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="椭圆形标注 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8142605" y="32869505"/>
+          <a:ext cx="485775" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52735"/>
+            <a:gd name="adj2" fmla="val 84629"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="椭圆形标注 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6103620" y="31765875"/>
+          <a:ext cx="371475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11367"/>
+            <a:gd name="adj2" fmla="val 115185"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="椭圆形标注 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="33688020"/>
+          <a:ext cx="485775" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1111"/>
+            <a:gd name="adj2" fmla="val -95925"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7682,73 +11930,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>580390</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>17780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="图片 65"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14668500" y="30718125"/>
-          <a:ext cx="3275965" cy="5818505"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>189865</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>37465</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="椭圆形标注 66"/>
+        <xdr:cNvPr id="80" name="椭圆形标注 79"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14810740" y="34575750"/>
-          <a:ext cx="533400" cy="492125"/>
+          <a:off x="11087100" y="33175575"/>
+          <a:ext cx="495300" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 76785"/>
-            <a:gd name="adj2" fmla="val -25741"/>
+            <a:gd name="adj1" fmla="val -109145"/>
+            <a:gd name="adj2" fmla="val 12407"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7871,7 +12077,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>19</a:t>
+            <a:t>17</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -8140,10 +12346,170 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:N239"/>
+  <dimension ref="C2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="60.375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12">
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43650</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43654</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="11:12">
+      <c r="K8">
+        <v>4.1</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12">
+      <c r="K9">
+        <v>4.2</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="11:12">
+      <c r="K10">
+        <v>4.3</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="J2:L3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K4" location="Sheet1!B4" display="设计目的"/>
+    <hyperlink ref="K5" location="Sheet1!B8" display="设计思路"/>
+    <hyperlink ref="K6" location="Sheet1!B12" display="功能规则"/>
+    <hyperlink ref="K7" location="Sheet1!B25" display="背包界面"/>
+    <hyperlink ref="L8" location="Sheet1!C26" display="功能入口"/>
+    <hyperlink ref="L9" location="Sheet1!C166" display="背包界面"/>
+    <hyperlink ref="L10" location="Sheet1!C219" display="合成界面"/>
+    <hyperlink ref="K11" location="Sheet1!B279" display="配置表"/>
+    <hyperlink ref="E6" location="Sheet1!C166" display="背包界面调整，原界面弃用（标红），点击跳转新界面"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:N292"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8159,7 +12525,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8167,12 +12533,12 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8180,12 +12546,12 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8193,7 +12559,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -8201,12 +12567,12 @@
         <v>3.1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -8214,27 +12580,27 @@
         <v>3.2</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8254,785 +12620,1146 @@
       </c>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>19</v>
+      <c r="C64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>1</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="E65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67">
+    <row r="67" s="1" customFormat="1" spans="2:3">
+      <c r="B67" s="1">
         <v>4.2</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="3:10">
-      <c r="C69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" t="s">
-        <v>25</v>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1" spans="3:10">
+      <c r="C69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="107" spans="3:7">
-      <c r="C107" s="1" t="s">
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="88" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1" spans="3:7">
+      <c r="C107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="3:7">
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="3:7">
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="3:7">
+      <c r="C110" s="5">
+        <v>3</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="3:7">
+      <c r="C111" s="5">
+        <v>4</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="27" spans="3:7">
+      <c r="C112" s="5">
+        <v>5</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="27" spans="3:7">
+      <c r="C113" s="5">
+        <v>6</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="3:7">
+      <c r="C114" s="5">
+        <v>7</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="3:7">
+      <c r="C115" s="5">
+        <v>8</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="3:7">
+      <c r="C116" s="5">
+        <v>9</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="3:7">
+      <c r="C117" s="5">
+        <v>10</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="3:7">
+      <c r="C118" s="5">
+        <v>11</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="40.5" spans="3:7">
+      <c r="C119" s="5">
+        <v>12</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1" spans="3:4">
+      <c r="C121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1"/>
+    <row r="123" s="1" customFormat="1"/>
+    <row r="124" s="1" customFormat="1"/>
+    <row r="125" s="1" customFormat="1"/>
+    <row r="126" s="1" customFormat="1"/>
+    <row r="127" s="1" customFormat="1"/>
+    <row r="128" s="1" customFormat="1"/>
+    <row r="129" s="1" customFormat="1"/>
+    <row r="130" s="1" customFormat="1"/>
+    <row r="131" s="1" customFormat="1"/>
+    <row r="132" s="1" customFormat="1"/>
+    <row r="133" s="1" customFormat="1"/>
+    <row r="134" s="1" customFormat="1"/>
+    <row r="135" s="1" customFormat="1"/>
+    <row r="136" s="1" customFormat="1"/>
+    <row r="137" s="1" customFormat="1"/>
+    <row r="138" s="1" customFormat="1"/>
+    <row r="139" s="1" customFormat="1"/>
+    <row r="140" s="1" customFormat="1"/>
+    <row r="141" s="1" customFormat="1"/>
+    <row r="142" s="1" customFormat="1"/>
+    <row r="143" s="1" customFormat="1"/>
+    <row r="144" s="1" customFormat="1"/>
+    <row r="145" s="1" customFormat="1"/>
+    <row r="146" s="1" customFormat="1"/>
+    <row r="147" s="1" customFormat="1"/>
+    <row r="148" s="1" customFormat="1"/>
+    <row r="149" s="1" customFormat="1"/>
+    <row r="150" s="1" customFormat="1"/>
+    <row r="151" s="1" customFormat="1"/>
+    <row r="152" s="1" customFormat="1"/>
+    <row r="153" s="1" customFormat="1"/>
+    <row r="154" s="1" customFormat="1"/>
+    <row r="155" s="1" customFormat="1"/>
+    <row r="156" s="1" customFormat="1" spans="3:7">
+      <c r="C156" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="3:7">
+      <c r="C157" s="5">
+        <v>1</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="3:7">
+      <c r="C158" s="5">
+        <v>2</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="27" spans="3:7">
+      <c r="C159" s="5">
+        <v>3</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="27" spans="3:7">
+      <c r="C160" s="5">
+        <v>4</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="27" spans="3:7">
+      <c r="C161" s="5">
+        <v>5</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="67.5" spans="3:7">
+      <c r="C162" s="5">
+        <v>6</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="3:7">
+      <c r="C163" s="5">
+        <v>7</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="3:7">
+      <c r="C164" s="5">
+        <v>8</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" s="2" customFormat="1"/>
+    <row r="166" s="2" customFormat="1" spans="2:3">
+      <c r="B166" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1"/>
+    <row r="168" s="2" customFormat="1" spans="3:12">
+      <c r="C168" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="171" s="2" customFormat="1"/>
+    <row r="172" s="2" customFormat="1"/>
+    <row r="173" s="2" customFormat="1"/>
+    <row r="174" s="2" customFormat="1"/>
+    <row r="175" s="2" customFormat="1"/>
+    <row r="176" s="2" customFormat="1"/>
+    <row r="177" s="2" customFormat="1"/>
+    <row r="178" s="2" customFormat="1"/>
+    <row r="179" s="2" customFormat="1"/>
+    <row r="180" s="2" customFormat="1"/>
+    <row r="181" s="2" customFormat="1"/>
+    <row r="182" s="2" customFormat="1"/>
+    <row r="183" s="2" customFormat="1"/>
+    <row r="184" s="2" customFormat="1"/>
+    <row r="185" s="2" customFormat="1"/>
+    <row r="186" s="2" customFormat="1"/>
+    <row r="187" s="2" customFormat="1"/>
+    <row r="188" s="2" customFormat="1"/>
+    <row r="189" s="2" customFormat="1"/>
+    <row r="190" s="2" customFormat="1"/>
+    <row r="191" s="2" customFormat="1"/>
+    <row r="192" s="2" customFormat="1"/>
+    <row r="193" s="2" customFormat="1"/>
+    <row r="194" s="2" customFormat="1"/>
+    <row r="195" s="2" customFormat="1"/>
+    <row r="196" s="2" customFormat="1"/>
+    <row r="197" s="2" customFormat="1"/>
+    <row r="198" s="2" customFormat="1"/>
+    <row r="199" s="2" customFormat="1"/>
+    <row r="200" s="2" customFormat="1"/>
+    <row r="201" s="2" customFormat="1" spans="3:7">
+      <c r="C201" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" s="2" customFormat="1" spans="3:7">
+      <c r="C202" s="7">
+        <v>1</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" s="2" customFormat="1" spans="3:7">
+      <c r="C203" s="7">
+        <v>2</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F203" s="8"/>
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" s="2" customFormat="1" spans="3:7">
+      <c r="C204" s="7">
+        <v>3</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F204" s="8"/>
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C205" s="7">
+        <v>4</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C206" s="7">
+        <v>5</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C207" s="7">
+        <v>6</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C208" s="7">
+        <v>7</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F208" s="8"/>
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" s="2" customFormat="1" spans="3:7">
+      <c r="C209" s="7">
+        <v>8</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" s="2" customFormat="1" ht="40.5" spans="3:7">
+      <c r="C210" s="7">
+        <v>9</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E210" s="7"/>
+      <c r="F210" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211" s="2" customFormat="1" spans="3:7">
+      <c r="C211" s="7">
+        <v>10</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C212" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C213" s="7">
+        <v>12</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214" s="2" customFormat="1" ht="27" spans="3:7">
+      <c r="C214" s="7">
+        <v>13</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" s="2" customFormat="1" ht="67.5" spans="3:7">
+      <c r="C215" s="7">
+        <v>14</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216" s="2" customFormat="1" spans="3:7">
+      <c r="C216" s="7">
         <v>15</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D216" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" s="2" customFormat="1" spans="3:7">
+      <c r="C217" s="7">
         <v>16</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="D217" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218" s="2" customFormat="1" spans="6:6">
+      <c r="F218" s="9"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219">
+        <v>4.3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="4:14">
+      <c r="D221" t="s">
+        <v>87</v>
+      </c>
+      <c r="F221" t="s">
+        <v>88</v>
+      </c>
+      <c r="I221" t="s">
+        <v>89</v>
+      </c>
+      <c r="N221" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="259" spans="3:7">
+      <c r="C259" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" ht="54" spans="3:7">
+      <c r="C260" s="4">
+        <v>1</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E260" s="4"/>
+      <c r="F260" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="3:7">
+      <c r="C261" s="4">
+        <v>2</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" ht="40.5" spans="3:7">
+      <c r="C262" s="4">
+        <v>3</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="3:7">
+      <c r="C263" s="4">
+        <v>4</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="3:7">
+      <c r="C264" s="4">
+        <v>5</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="3:7">
+      <c r="C265" s="4">
+        <v>6</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="3:7">
+      <c r="C266" s="4">
+        <v>7</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="3:7">
+      <c r="C267" s="4">
+        <v>8</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" ht="27" spans="3:7">
+      <c r="C268" s="4">
+        <v>9</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" ht="27" spans="3:7">
+      <c r="C269" s="4">
+        <v>10</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E269" s="4"/>
+      <c r="F269" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" ht="40.5" spans="3:7">
+      <c r="C270" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" ht="40.5" spans="3:7">
+      <c r="C271" s="4">
+        <v>12</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" ht="40.5" spans="3:7">
+      <c r="C272" s="4">
+        <v>13</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F272" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" ht="94.5" spans="3:7">
+      <c r="C273" s="4">
+        <v>14</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" ht="27" spans="3:7">
+      <c r="C274" s="4">
+        <v>15</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="3:7">
+      <c r="C275" s="4">
         <v>19</v>
       </c>
+      <c r="D275" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
     </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="2">
-        <v>2</v>
-      </c>
-      <c r="D109" s="2" t="s">
+    <row r="281" spans="3:4">
+      <c r="C281" t="s">
+        <v>117</v>
+      </c>
+      <c r="D281" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="283" spans="3:12">
+      <c r="C283" t="s">
+        <v>119</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="284" ht="229.5" spans="3:12">
+      <c r="C284" t="s">
+        <v>129</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E284" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="2"/>
+      <c r="F284" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G284" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H284" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I284" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J284" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="110" spans="3:7">
-      <c r="C110" s="2">
-        <v>3</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="2"/>
+    <row r="285" spans="3:12">
+      <c r="C285" t="s">
+        <v>138</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="2">
-        <v>4</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="2"/>
+    <row r="288" spans="3:4">
+      <c r="C288" t="s">
+        <v>117</v>
+      </c>
+      <c r="D288" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="112" ht="27" spans="3:7">
-      <c r="C112" s="2">
-        <v>5</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" s="2"/>
+    <row r="290" spans="3:8">
+      <c r="C290" t="s">
+        <v>119</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="113" ht="27" spans="3:7">
-      <c r="C113" s="2">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G113" s="2"/>
+    <row r="291" ht="27" spans="3:8">
+      <c r="C291" t="s">
+        <v>129</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H291" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="114" spans="3:7">
-      <c r="C114" s="2">
-        <v>7</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="3:7">
-      <c r="C115" s="2">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="2">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="3:7">
-      <c r="C117" s="2">
-        <v>10</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" ht="40.5" spans="3:7">
-      <c r="C119" s="2">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="121" spans="3:4">
-      <c r="C121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="3:7">
-      <c r="C156" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="3:7">
-      <c r="C157" s="2">
-        <v>1</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="3:7">
-      <c r="C158" s="2">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-    </row>
-    <row r="159" ht="27" spans="3:7">
-      <c r="C159" s="2">
-        <v>3</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="160" ht="27" spans="3:7">
-      <c r="C160" s="2">
-        <v>4</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-    </row>
-    <row r="161" ht="27" spans="3:7">
-      <c r="C161" s="2">
-        <v>5</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" ht="67.5" spans="3:7">
-      <c r="C162" s="2">
-        <v>6</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="3:7">
-      <c r="C163" s="2">
-        <v>7</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="3:7">
-      <c r="C164" s="2">
-        <v>8</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-    </row>
-    <row r="166" spans="2:3">
-      <c r="B166">
-        <v>4.3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="168" spans="4:14">
-      <c r="D168" t="s">
-        <v>64</v>
-      </c>
-      <c r="F168" t="s">
-        <v>65</v>
-      </c>
-      <c r="I168" t="s">
-        <v>66</v>
-      </c>
-      <c r="N168" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="3:7">
-      <c r="C206" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" ht="54" spans="3:7">
-      <c r="C207" s="2">
-        <v>1</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E207" s="2"/>
-      <c r="F207" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G207" s="2"/>
-    </row>
-    <row r="208" spans="3:7">
-      <c r="C208" s="2">
-        <v>2</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-    </row>
-    <row r="209" ht="40.5" spans="3:7">
-      <c r="C209" s="2">
-        <v>3</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="3:7">
-      <c r="C210" s="2">
-        <v>4</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="3:7">
-      <c r="C211" s="2">
-        <v>5</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="3:7">
-      <c r="C212" s="2">
-        <v>6</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="3:7">
-      <c r="C213" s="2">
-        <v>7</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G213" s="2"/>
-    </row>
-    <row r="214" spans="3:7">
-      <c r="C214" s="2">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-    </row>
-    <row r="215" ht="27" spans="3:7">
-      <c r="C215" s="2">
-        <v>9</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G215" s="2"/>
-    </row>
-    <row r="216" ht="27" spans="3:7">
-      <c r="C216" s="2">
-        <v>10</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E216" s="2"/>
-      <c r="F216" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G216" s="2"/>
-    </row>
-    <row r="217" ht="40.5" spans="3:7">
-      <c r="C217" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-    </row>
-    <row r="218" ht="40.5" spans="3:7">
-      <c r="C218" s="2">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-    </row>
-    <row r="219" ht="40.5" spans="3:7">
-      <c r="C219" s="2">
-        <v>13</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G219" s="2"/>
-    </row>
-    <row r="220" ht="94.5" spans="3:7">
-      <c r="C220" s="2">
-        <v>14</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-    </row>
-    <row r="221" ht="27" spans="3:7">
-      <c r="C221" s="2">
-        <v>15</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="3:7">
-      <c r="C222" s="2">
-        <v>19</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226">
-        <v>5</v>
-      </c>
-      <c r="C226" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="228" spans="3:4">
-      <c r="C228" t="s">
-        <v>95</v>
-      </c>
-      <c r="D228" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="230" spans="3:12">
-      <c r="C230" t="s">
-        <v>97</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K230" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="231" ht="229.5" spans="3:12">
-      <c r="C231" t="s">
-        <v>107</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I231" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J231" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K231" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="232" spans="3:12">
-      <c r="C232" t="s">
-        <v>116</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K232" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="235" spans="3:4">
-      <c r="C235" t="s">
-        <v>95</v>
-      </c>
-      <c r="D235" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="237" spans="3:8">
-      <c r="C237" t="s">
-        <v>97</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="238" ht="27" spans="3:8">
-      <c r="C238" t="s">
-        <v>107</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="239" spans="3:8">
-      <c r="C239" t="s">
-        <v>116</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>117</v>
+    <row r="292" spans="3:8">
+      <c r="C292" t="s">
+        <v>138</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9040,4 +13767,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>修订记录</t>
   </si>
@@ -205,10 +205,16 @@
     <t>仅显示栏位框及底图</t>
   </si>
   <si>
-    <t>道具选中光标</t>
+    <t>道具选中</t>
   </si>
   <si>
-    <t>在选中的道具图标下方显示光标</t>
+    <t>在选中的道具图标下方显示光标，道具边框显示为选中框</t>
+  </si>
+  <si>
+    <t>使用按钮</t>
+  </si>
+  <si>
+    <t>单击，弹出普通道具使用弹窗（图4.2.E）</t>
   </si>
   <si>
     <t>道具图标及名称、数量道具效果</t>
@@ -238,9 +244,6 @@
     <t>单击，弹出系统输入框，可直接输入数量
 输入数值小于1时，设置为1
 输入数值大于拥有最大值时，设置为最大值</t>
-  </si>
-  <si>
-    <t>使用按钮</t>
   </si>
   <si>
     <t>单击，使用所填入的数量道具</t>
@@ -666,8 +669,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -694,16 +697,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,30 +763,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,14 +805,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,51 +822,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,31 +858,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,85 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +924,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,19 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +990,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,17 +1067,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,6 +1102,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1105,17 +1137,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,24 +1164,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,16 +1184,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,116 +1205,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,6 +1350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1589,7 +1595,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="30518100"/>
+          <a:off x="5895975" y="30861000"/>
           <a:ext cx="3302635" cy="5866765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1799,7 +1805,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="30518100"/>
+          <a:off x="1409700" y="30861000"/>
           <a:ext cx="3276600" cy="5819775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1833,7 +1839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="31613475"/>
+          <a:off x="1095375" y="31956375"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1990,7 +1996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="32118300"/>
+          <a:off x="971550" y="32461200"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2147,7 +2153,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="32575500"/>
+          <a:off x="1085850" y="32918400"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2304,7 +2310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="32061150"/>
+          <a:off x="5895975" y="32404050"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2461,7 +2467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="31889700"/>
+          <a:off x="7019925" y="32232600"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2618,7 +2624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="32232600"/>
+          <a:off x="8953500" y="32575500"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2775,7 +2781,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9105900" y="31718250"/>
+          <a:off x="9105900" y="32061150"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2932,7 +2938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429375" y="33432750"/>
+          <a:off x="6429375" y="33775650"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3089,7 +3095,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819140" y="33775650"/>
+          <a:off x="5819140" y="34118550"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3246,7 +3252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8057515" y="33604200"/>
+          <a:off x="8057515" y="33947100"/>
           <a:ext cx="504825" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3403,7 +3409,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7466965" y="33604200"/>
+          <a:off x="7466965" y="33947100"/>
           <a:ext cx="514350" cy="474980"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3560,7 +3566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648065" y="33604200"/>
+          <a:off x="8648065" y="33947100"/>
           <a:ext cx="504825" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3717,7 +3723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8009890" y="34632900"/>
+          <a:off x="8009890" y="34975800"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3882,7 +3888,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10248265" y="30518100"/>
+          <a:off x="10248265" y="30861000"/>
           <a:ext cx="3286125" cy="5836285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3916,7 +3922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772140" y="33432750"/>
+          <a:off x="10772140" y="33775650"/>
           <a:ext cx="476250" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4073,7 +4079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10705465" y="34461450"/>
+          <a:off x="10705465" y="34804350"/>
           <a:ext cx="529590" cy="489585"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4230,7 +4236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12439015" y="34461450"/>
+          <a:off x="12439015" y="34804350"/>
           <a:ext cx="533400" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4387,7 +4393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="33089850"/>
+          <a:off x="971550" y="33432750"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4544,7 +4550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5752465" y="34290000"/>
+          <a:off x="5752465" y="34632900"/>
           <a:ext cx="485775" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4709,7 +4715,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14668500" y="30518100"/>
+          <a:off x="14668500" y="30861000"/>
           <a:ext cx="3275965" cy="5818505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4743,7 +4749,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14810740" y="34290000"/>
+          <a:off x="14810740" y="34632900"/>
           <a:ext cx="533400" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4900,7 +4906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1094740" y="31546800"/>
+          <a:off x="1094740" y="31889700"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5057,7 +5063,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="32061150"/>
+          <a:off x="971550" y="32404050"/>
           <a:ext cx="371475" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -15043,26 +15049,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="3:12">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="5" t="s">
@@ -15080,7 +15086,7 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15088,7 +15094,7 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>43650</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -15100,7 +15106,7 @@
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -15108,7 +15114,7 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>43654</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -15120,7 +15126,7 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15128,10 +15134,10 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>43655</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -15140,7 +15146,7 @@
       <c r="K7">
         <v>3.1</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15148,7 +15154,7 @@
       <c r="K8">
         <v>3.2</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15156,7 +15162,7 @@
       <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15164,7 +15170,7 @@
       <c r="K10">
         <v>4.1</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15172,7 +15178,7 @@
       <c r="K11">
         <v>4.2</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15180,7 +15186,7 @@
       <c r="K12">
         <v>4.3</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15188,7 +15194,7 @@
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15220,8 +15226,8 @@
   <sheetPr/>
   <dimension ref="A2:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="K138" sqref="K138"/>
+    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15695,7 +15701,7 @@
       </c>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" s="2" customFormat="1" spans="3:7">
+    <row r="144" s="2" customFormat="1" ht="27" spans="3:7">
       <c r="C144" s="6">
         <v>9</v>
       </c>
@@ -15708,12 +15714,16 @@
       </c>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" s="2" customFormat="1" spans="3:7">
+    <row r="145" s="2" customFormat="1" ht="27" spans="3:7">
       <c r="C145" s="6">
         <v>10</v>
       </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="D145" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="F145" s="7"/>
       <c r="G145" s="6"/>
     </row>
@@ -15722,7 +15732,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="7"/>
@@ -15733,10 +15743,10 @@
         <v>12</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -15746,10 +15756,10 @@
         <v>13</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -15759,10 +15769,10 @@
         <v>14</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -15772,10 +15782,10 @@
         <v>15</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -15785,10 +15795,10 @@
         <v>16</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -15798,10 +15808,10 @@
         <v>17</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -15811,11 +15821,11 @@
         <v>18</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G153" s="6"/>
     </row>
@@ -15835,16 +15845,16 @@
     </row>
     <row r="158" spans="4:14">
       <c r="D158" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F158" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196" spans="3:7">
@@ -15869,11 +15879,11 @@
         <v>1</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E197" s="10"/>
-      <c r="F197" s="12" t="s">
-        <v>82</v>
+      <c r="F197" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="G197" s="10"/>
     </row>
@@ -15882,7 +15892,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
@@ -15893,13 +15903,13 @@
         <v>3</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E199" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="E199" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="F199" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G199" s="10"/>
     </row>
@@ -15908,13 +15918,13 @@
         <v>4</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G200" s="10"/>
     </row>
@@ -15923,7 +15933,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
@@ -15934,7 +15944,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
@@ -15945,11 +15955,11 @@
         <v>7</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G203" s="10"/>
     </row>
@@ -15961,7 +15971,7 @@
         <v>41</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
@@ -15970,14 +15980,14 @@
       <c r="C205" s="10">
         <v>9</v>
       </c>
-      <c r="D205" s="12" t="s">
-        <v>95</v>
+      <c r="D205" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F205" s="13" t="s">
         <v>97</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="G205" s="10"/>
     </row>
@@ -15986,11 +15996,11 @@
         <v>10</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E206" s="10"/>
-      <c r="F206" s="12" t="s">
-        <v>99</v>
+      <c r="F206" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="G206" s="10"/>
     </row>
@@ -15999,10 +16009,10 @@
         <v>11</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E207" s="13" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
@@ -16012,10 +16022,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>101</v>
+        <v>69</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
@@ -16025,13 +16035,13 @@
         <v>13</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F209" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E209" s="14" t="s">
         <v>103</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="G209" s="10"/>
     </row>
@@ -16040,10 +16050,10 @@
         <v>14</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
@@ -16053,10 +16063,10 @@
         <v>15</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
@@ -16066,10 +16076,10 @@
         <v>19</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F212" s="10"/>
       <c r="G212" s="10"/>
@@ -16084,174 +16094,174 @@
     </row>
     <row r="218" spans="3:4">
       <c r="C218" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D218" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="3:12">
       <c r="C220" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221" ht="229.5" spans="3:12">
       <c r="C221" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F221" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G221" s="14" t="s">
+      <c r="F221" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H221" s="14" t="s">
+      <c r="G221" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I221" s="14" t="s">
+      <c r="H221" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J221" s="14" t="s">
+      <c r="I221" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="J221" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="K221" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="222" spans="3:12">
       <c r="C222" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E222" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F222" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F222" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="G222" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J222" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K222" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K222" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="L222" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="225" spans="3:4">
       <c r="C225" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D225" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="227" spans="3:8">
       <c r="C227" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="228" ht="27" spans="3:8">
       <c r="C228" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F228" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G228" s="14" t="s">
+      <c r="F228" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H228" s="14" t="s">
-        <v>125</v>
+      <c r="G228" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H228" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="229" spans="3:8">
       <c r="C229" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E229" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G229" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F229" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="H229" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -16290,19 +16300,19 @@
     <row r="2" s="1" customFormat="1"/>
     <row r="3" s="1" customFormat="1" spans="3:10">
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -16406,7 +16416,7 @@
         <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
@@ -16419,10 +16429,10 @@
         <v>50</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -16434,10 +16444,10 @@
         <v>53</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -16449,10 +16459,10 @@
         <v>56</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -16474,7 +16484,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -16485,7 +16495,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -16496,7 +16506,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -16507,10 +16517,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -16518,10 +16528,10 @@
     <row r="54" s="1" customFormat="1"/>
     <row r="55" s="1" customFormat="1" spans="3:4">
       <c r="C55" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1"/>
@@ -16580,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -16591,7 +16601,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -16602,10 +16612,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -16615,10 +16625,10 @@
         <v>4</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -16628,10 +16638,10 @@
         <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -16641,10 +16651,10 @@
         <v>6</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -16654,10 +16664,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -16667,10 +16677,10 @@
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -16690,13 +16700,13 @@
         <v>35</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1"/>
@@ -16810,7 +16820,7 @@
         <v>50</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>52</v>
@@ -16825,10 +16835,10 @@
         <v>53</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G141" s="6"/>
     </row>
@@ -16840,7 +16850,7 @@
         <v>56</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="6"/>
@@ -16863,11 +16873,11 @@
         <v>9</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G144" s="6"/>
     </row>
@@ -16876,7 +16886,7 @@
         <v>10</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -16887,10 +16897,10 @@
         <v>11</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -16900,10 +16910,10 @@
         <v>12</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -16913,10 +16923,10 @@
         <v>13</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -16926,10 +16936,10 @@
         <v>14</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -16939,10 +16949,10 @@
         <v>15</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -16952,10 +16962,10 @@
         <v>16</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>

--- a/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】背包功能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>修订记录</t>
   </si>
@@ -499,6 +499,9 @@
     <t>achieve_mode</t>
   </si>
   <si>
+    <t>intro</t>
+  </si>
+  <si>
     <t>icon_id</t>
   </si>
   <si>
@@ -547,6 +550,9 @@
   <si>
     <t>获取途径
 用于展示</t>
+  </si>
+  <si>
+    <t>道具介绍</t>
   </si>
   <si>
     <t>图标</t>
@@ -667,10 +673,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -698,7 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,21 +712,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,7 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,8 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,6 +750,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,15 +773,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,32 +825,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,7 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,25 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,25 +906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +942,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,25 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,67 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,17 +1075,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1088,25 +1083,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,16 +1113,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,9 +1144,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,10 +1178,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,16 +1190,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,116 +1211,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,9 +1356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -15049,26 +15052,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="3:12">
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="5" t="s">
@@ -15086,7 +15089,7 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15094,7 +15097,7 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>43650</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -15106,7 +15109,7 @@
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -15114,7 +15117,7 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>43654</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -15126,7 +15129,7 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15134,10 +15137,10 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>43655</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -15146,7 +15149,7 @@
       <c r="K7">
         <v>3.1</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15154,7 +15157,7 @@
       <c r="K8">
         <v>3.2</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15162,7 +15165,7 @@
       <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15170,7 +15173,7 @@
       <c r="K10">
         <v>4.1</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15178,7 +15181,7 @@
       <c r="K11">
         <v>4.2</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15186,7 +15189,7 @@
       <c r="K12">
         <v>4.3</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15194,7 +15197,7 @@
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15226,8 +15229,8 @@
   <sheetPr/>
   <dimension ref="A2:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="B208" workbookViewId="0">
+      <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15721,7 +15724,7 @@
       <c r="D145" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F145" s="7"/>
@@ -15882,7 +15885,7 @@
         <v>82</v>
       </c>
       <c r="E197" s="10"/>
-      <c r="F197" s="13" t="s">
+      <c r="F197" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G197" s="10"/>
@@ -15905,7 +15908,7 @@
       <c r="D199" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="E199" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F199" s="10" t="s">
@@ -15980,13 +15983,13 @@
       <c r="C205" s="10">
         <v>9</v>
       </c>
-      <c r="D205" s="13" t="s">
+      <c r="D205" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F205" s="14" t="s">
+      <c r="F205" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G205" s="10"/>
@@ -15999,7 +16002,7 @@
         <v>99</v>
       </c>
       <c r="E206" s="10"/>
-      <c r="F206" s="13" t="s">
+      <c r="F206" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G206" s="10"/>
@@ -16011,7 +16014,7 @@
       <c r="D207" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E207" s="14" t="s">
+      <c r="E207" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F207" s="10"/>
@@ -16024,7 +16027,7 @@
       <c r="D208" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E208" s="14" t="s">
+      <c r="E208" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F208" s="10"/>
@@ -16037,10 +16040,10 @@
       <c r="D209" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E209" s="14" t="s">
+      <c r="E209" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F209" s="13" t="s">
+      <c r="F209" s="12" t="s">
         <v>104</v>
       </c>
       <c r="G209" s="10"/>
@@ -16052,7 +16055,7 @@
       <c r="D210" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E210" s="14" t="s">
+      <c r="E210" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F210" s="10"/>
@@ -16065,7 +16068,7 @@
       <c r="D211" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="E211" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F211" s="10"/>
@@ -16100,7 +16103,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="3:12">
+    <row r="220" spans="3:13">
       <c r="C220" t="s">
         <v>111</v>
       </c>
@@ -16131,69 +16134,78 @@
       <c r="L220" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="221" ht="229.5" spans="3:12">
+      <c r="M220" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221" ht="229.5" spans="3:13">
       <c r="C221" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F221" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G221" s="15" t="s">
+      <c r="F221" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H221" s="15" t="s">
+      <c r="G221" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I221" s="15" t="s">
+      <c r="H221" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J221" s="15" t="s">
+      <c r="I221" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K221" s="5" t="s">
+      <c r="J221" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="K221" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="L221" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="222" spans="3:12">
+        <v>130</v>
+      </c>
+      <c r="M221" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="222" spans="3:13">
       <c r="C222" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="225" spans="3:4">
@@ -16201,7 +16213,7 @@
         <v>109</v>
       </c>
       <c r="D225" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="227" spans="3:8">
@@ -16215,10 +16227,10 @@
         <v>113</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>117</v>
@@ -16226,42 +16238,42 @@
     </row>
     <row r="228" ht="27" spans="3:8">
       <c r="C228" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F228" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H228" s="15" t="s">
-        <v>126</v>
+      <c r="F228" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H228" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="3:8">
       <c r="C229" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -16300,19 +16312,19 @@
     <row r="2" s="1" customFormat="1"/>
     <row r="3" s="1" customFormat="1" spans="3:10">
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -16416,7 +16428,7 @@
         <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
@@ -16429,10 +16441,10 @@
         <v>50</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -16444,10 +16456,10 @@
         <v>53</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -16459,10 +16471,10 @@
         <v>56</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -16495,7 +16507,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -16506,7 +16518,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -16520,7 +16532,7 @@
         <v>62</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -16528,10 +16540,10 @@
     <row r="54" s="1" customFormat="1"/>
     <row r="55" s="1" customFormat="1" spans="3:4">
       <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1"/>
@@ -16590,7 +16602,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -16601,7 +16613,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -16677,10 +16689,10 @@
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -16700,13 +16712,13 @@
         <v>35</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1"/>
@@ -16820,7 +16832,7 @@
         <v>50</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>52</v>
@@ -16835,10 +16847,10 @@
         <v>53</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G141" s="6"/>
     </row>
@@ -16850,7 +16862,7 @@
         <v>56</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="6"/>
@@ -16873,11 +16885,11 @@
         <v>9</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G144" s="6"/>
     </row>
@@ -16886,7 +16898,7 @@
         <v>10</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -16962,10 +16974,10 @@
         <v>16</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
